--- a/Code/Results/Cases/Case_1_77/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_77/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.67836775986428</v>
+        <v>15.80994075699194</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.008132431416358</v>
+        <v>4.630582415723802</v>
       </c>
       <c r="E2">
-        <v>12.43302282667949</v>
+        <v>19.76646936105121</v>
       </c>
       <c r="F2">
-        <v>16.14950971419488</v>
+        <v>22.00976897900639</v>
       </c>
       <c r="G2">
-        <v>19.31093189676888</v>
+        <v>24.82005699981466</v>
       </c>
       <c r="H2">
-        <v>8.092031564581065</v>
+        <v>13.34307326609354</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.55749485500837</v>
+        <v>11.429712908634</v>
       </c>
       <c r="L2">
-        <v>6.896936981204544</v>
+        <v>7.982111710387281</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.87297537794066</v>
+        <v>19.7759255541662</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.01158798233828</v>
+        <v>15.68849634596029</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.803816959201301</v>
+        <v>4.551244700977302</v>
       </c>
       <c r="E3">
-        <v>12.65785377718237</v>
+        <v>19.8643665441562</v>
       </c>
       <c r="F3">
-        <v>15.87238903053155</v>
+        <v>22.04504210212019</v>
       </c>
       <c r="G3">
-        <v>18.9945151656016</v>
+        <v>24.87744333548171</v>
       </c>
       <c r="H3">
-        <v>8.155073508312704</v>
+        <v>13.38928186310843</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.95964922224797</v>
+        <v>11.16674398827247</v>
       </c>
       <c r="L3">
-        <v>6.518363624745582</v>
+        <v>7.925738661152009</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.88959869290664</v>
+        <v>19.84876793321824</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.59021036763583</v>
+        <v>15.61651973169609</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.673291723018848</v>
+        <v>4.501198593786361</v>
       </c>
       <c r="E4">
-        <v>12.80331353943576</v>
+        <v>19.92810320630779</v>
       </c>
       <c r="F4">
-        <v>15.7160782456213</v>
+        <v>22.07297780406858</v>
       </c>
       <c r="G4">
-        <v>18.82357154325879</v>
+        <v>24.92170836421681</v>
       </c>
       <c r="H4">
-        <v>8.199067144477272</v>
+        <v>13.41984118329521</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.57865129376899</v>
+        <v>11.00087721554858</v>
       </c>
       <c r="L4">
-        <v>6.274475984757038</v>
+        <v>7.89209619456461</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.91205388614389</v>
+        <v>19.8980022803103</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.4157111349744</v>
+        <v>15.58786758209826</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.618869309802387</v>
+        <v>4.480483289318166</v>
       </c>
       <c r="E5">
-        <v>12.86442121139722</v>
+        <v>19.95498975408542</v>
       </c>
       <c r="F5">
-        <v>15.65586077876646</v>
+        <v>22.08593709605724</v>
       </c>
       <c r="G5">
-        <v>18.75969678026091</v>
+        <v>24.94200730057173</v>
       </c>
       <c r="H5">
-        <v>8.218278803426218</v>
+        <v>13.43284430854665</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.42003301660076</v>
+        <v>10.93224167799833</v>
       </c>
       <c r="L5">
-        <v>6.17224971749458</v>
+        <v>7.87864197738311</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.92416471740358</v>
+        <v>19.91919709670358</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.38657481399167</v>
+        <v>15.58315169775429</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.609759485359676</v>
+        <v>4.477024553222442</v>
       </c>
       <c r="E6">
-        <v>12.87467784675277</v>
+        <v>19.95950944423524</v>
       </c>
       <c r="F6">
-        <v>15.64607163527218</v>
+        <v>22.08818400693864</v>
       </c>
       <c r="G6">
-        <v>18.74943693088946</v>
+        <v>24.94551414163527</v>
       </c>
       <c r="H6">
-        <v>8.22154514478845</v>
+        <v>13.43503668359956</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.3934962655012</v>
+        <v>10.92078370937981</v>
       </c>
       <c r="L6">
-        <v>6.155104887162953</v>
+        <v>7.876423658640176</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.92635097926647</v>
+        <v>19.92278474436473</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.58786795879084</v>
+        <v>15.61613053453603</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.672562690438372</v>
+        <v>4.500920501274489</v>
       </c>
       <c r="E7">
-        <v>12.80413028254951</v>
+        <v>19.92846210799124</v>
       </c>
       <c r="F7">
-        <v>15.71525205046581</v>
+        <v>22.07314620438005</v>
       </c>
       <c r="G7">
-        <v>18.82268680759778</v>
+        <v>24.9219729838686</v>
       </c>
       <c r="H7">
-        <v>8.19932109946474</v>
+        <v>13.42001432124454</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.57652550878356</v>
+        <v>10.99995571085072</v>
       </c>
       <c r="L7">
-        <v>6.27310876806887</v>
+        <v>7.891913697783949</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.91220539037977</v>
+        <v>19.89828354312004</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.45107156148489</v>
+        <v>15.76754582095768</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.938762015469966</v>
+        <v>4.603511496606671</v>
       </c>
       <c r="E8">
-        <v>12.50898539173049</v>
+        <v>19.79947216525296</v>
       </c>
       <c r="F8">
-        <v>16.05108950832373</v>
+        <v>22.0206263763993</v>
       </c>
       <c r="G8">
-        <v>19.19694700748255</v>
+        <v>24.83796407589492</v>
       </c>
       <c r="H8">
-        <v>8.112643575635531</v>
+        <v>13.35855206921989</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.35432488052627</v>
+        <v>11.33999201645912</v>
       </c>
       <c r="L8">
-        <v>6.768798748780575</v>
+        <v>7.962479652760996</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.87609322071456</v>
+        <v>19.80010440101323</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.04064508551891</v>
+        <v>16.08377046230861</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.418902896651496</v>
+        <v>4.793539177866919</v>
       </c>
       <c r="E9">
-        <v>11.99068774907303</v>
+        <v>19.57525035106762</v>
       </c>
       <c r="F9">
-        <v>16.81887964317919</v>
+        <v>21.96756642930351</v>
       </c>
       <c r="G9">
-        <v>20.11829706810845</v>
+        <v>24.74525848361795</v>
       </c>
       <c r="H9">
-        <v>7.986737293730581</v>
+        <v>13.25537786268642</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.76396207709724</v>
+        <v>11.96927047426158</v>
       </c>
       <c r="L9">
-        <v>7.648934590892689</v>
+        <v>8.108051402719077</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.907737860062</v>
+        <v>19.64345376284912</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.13688462325164</v>
+        <v>16.32612102763391</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.744373130809696</v>
+        <v>4.925622132587502</v>
       </c>
       <c r="E10">
-        <v>11.64943541967252</v>
+        <v>19.42795117425856</v>
       </c>
       <c r="F10">
-        <v>17.44800142818793</v>
+        <v>21.95913993290533</v>
       </c>
       <c r="G10">
-        <v>20.91076615246473</v>
+        <v>24.72150975579988</v>
       </c>
       <c r="H10">
-        <v>7.92417796837202</v>
+        <v>13.19015414134239</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.72348144187385</v>
+        <v>12.40552492856498</v>
       </c>
       <c r="L10">
-        <v>8.238637225786572</v>
+        <v>8.218682485309889</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.00048152472262</v>
+        <v>19.55037122621708</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.61875013346514</v>
+        <v>16.43816292684276</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.886238467948683</v>
+        <v>4.983933303797327</v>
       </c>
       <c r="E11">
-        <v>11.50348867320443</v>
+        <v>19.36471154904319</v>
       </c>
       <c r="F11">
-        <v>17.74783256138104</v>
+        <v>21.96195009170556</v>
       </c>
       <c r="G11">
-        <v>21.29620977197256</v>
+        <v>24.72040496207869</v>
       </c>
       <c r="H11">
-        <v>7.90293021858635</v>
+        <v>13.16277917305461</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.14258948216829</v>
+        <v>12.59772965756263</v>
       </c>
       <c r="L11">
-        <v>8.494494522202984</v>
+        <v>8.269655402530748</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.05919829010819</v>
+        <v>19.51283202762534</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.79872422733424</v>
+        <v>16.48081543911176</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.939051162519942</v>
+        <v>5.00574813367417</v>
       </c>
       <c r="E12">
-        <v>11.44962883127599</v>
+        <v>19.34130505640658</v>
       </c>
       <c r="F12">
-        <v>17.86328395588955</v>
+        <v>21.96396878928656</v>
       </c>
       <c r="G12">
-        <v>21.44571759426766</v>
+        <v>24.72138426596226</v>
       </c>
       <c r="H12">
-        <v>7.895982994509724</v>
+        <v>13.15274314775846</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.29874072625768</v>
+        <v>12.66956926742137</v>
       </c>
       <c r="L12">
-        <v>8.589599966644663</v>
+        <v>8.289037168405986</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.08392092216174</v>
+        <v>19.49930992579087</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.76007573200033</v>
+        <v>16.47162000012152</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.927717665597979</v>
+        <v>5.001061937168787</v>
       </c>
       <c r="E13">
-        <v>11.4611647016014</v>
+        <v>19.34632201514501</v>
       </c>
       <c r="F13">
-        <v>17.83833520397824</v>
+        <v>21.96349159417802</v>
       </c>
       <c r="G13">
-        <v>21.41336129405317</v>
+        <v>24.72111116252712</v>
       </c>
       <c r="H13">
-        <v>7.897429320249914</v>
+        <v>13.15488989327816</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.26522520310053</v>
+        <v>12.654139996673</v>
       </c>
       <c r="L13">
-        <v>8.569196502460247</v>
+        <v>8.284859641509348</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.07848409548712</v>
+        <v>19.50219128774994</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.63360715546719</v>
+        <v>16.44166766435767</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.890601701363973</v>
+        <v>4.985733422871593</v>
       </c>
       <c r="E14">
-        <v>11.49902895214594</v>
+        <v>19.36277504507867</v>
       </c>
       <c r="F14">
-        <v>17.7572927891959</v>
+        <v>21.96209704801944</v>
       </c>
       <c r="G14">
-        <v>21.30843900414258</v>
+        <v>24.72045750701757</v>
       </c>
       <c r="H14">
-        <v>7.902336280495365</v>
+        <v>13.16194688289758</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.15548764194621</v>
+        <v>12.60365911449324</v>
       </c>
       <c r="L14">
-        <v>8.502354598557432</v>
+        <v>8.271248437817933</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.06118175624364</v>
+        <v>19.51170565110731</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.55581418803624</v>
+        <v>16.42334925598167</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.867748295263071</v>
+        <v>4.976309257405374</v>
       </c>
       <c r="E15">
-        <v>11.52240740414615</v>
+        <v>19.37292343015259</v>
       </c>
       <c r="F15">
-        <v>17.70789945472801</v>
+        <v>21.96136712142676</v>
       </c>
       <c r="G15">
-        <v>21.24463190618723</v>
+        <v>24.72023920412089</v>
       </c>
       <c r="H15">
-        <v>7.90548691632876</v>
+        <v>13.1663125102857</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.08793590340188</v>
+        <v>12.57261387642048</v>
       </c>
       <c r="L15">
-        <v>8.461180025494361</v>
+        <v>8.262921124394053</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.05091078288402</v>
+        <v>19.51762381180247</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.10504788384492</v>
+        <v>16.31883209525099</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.734975650656712</v>
+        <v>4.921774685660531</v>
       </c>
       <c r="E16">
-        <v>11.65916619574483</v>
+        <v>19.43215977661002</v>
       </c>
       <c r="F16">
-        <v>17.42867703418115</v>
+        <v>21.9590899195668</v>
       </c>
       <c r="G16">
-        <v>20.88607542691916</v>
+        <v>24.72177741122684</v>
       </c>
       <c r="H16">
-        <v>7.925716896843363</v>
+        <v>13.1919893685405</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.69573687316613</v>
+        <v>12.39283416533471</v>
       </c>
       <c r="L16">
-        <v>8.221666792350604</v>
+        <v>8.21536313742765</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.99698644294448</v>
+        <v>19.55292137893705</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.82414651611234</v>
+        <v>16.25515028662812</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.651923752144077</v>
+        <v>4.887856903196754</v>
       </c>
       <c r="E17">
-        <v>11.74549049534271</v>
+        <v>19.46946373650324</v>
       </c>
       <c r="F17">
-        <v>17.26084207233946</v>
+        <v>21.95939420126383</v>
       </c>
       <c r="G17">
-        <v>20.67247794250119</v>
+        <v>24.72520774215831</v>
       </c>
       <c r="H17">
-        <v>7.940017481711855</v>
+        <v>13.20832937744391</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.45063942082338</v>
+        <v>12.2809108899882</v>
       </c>
       <c r="L17">
-        <v>8.071556187872545</v>
+        <v>8.186343799287361</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.96821937484134</v>
+        <v>19.57580751223963</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.66099971531973</v>
+        <v>16.21869321091276</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.603572443916663</v>
+        <v>4.868181940289378</v>
       </c>
       <c r="E18">
-        <v>11.79601164185181</v>
+        <v>19.49127464760493</v>
       </c>
       <c r="F18">
-        <v>17.165594921194</v>
+        <v>21.96019462637307</v>
       </c>
       <c r="G18">
-        <v>20.55197346039513</v>
+        <v>24.72809357577156</v>
       </c>
       <c r="H18">
-        <v>7.948917655468795</v>
+        <v>13.21794378349986</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.30803229224012</v>
+        <v>12.21594980928314</v>
       </c>
       <c r="L18">
-        <v>7.984048870587096</v>
+        <v>8.169714289959556</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.95322258183726</v>
+        <v>19.58942310400479</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.60549243935585</v>
+        <v>16.2063798609039</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.587102166678079</v>
+        <v>4.861492118748758</v>
       </c>
       <c r="E19">
-        <v>11.81326459007702</v>
+        <v>19.49872038504557</v>
       </c>
       <c r="F19">
-        <v>17.13356841257525</v>
+        <v>21.96057306037693</v>
       </c>
       <c r="G19">
-        <v>20.51157751743923</v>
+        <v>24.72922732592653</v>
       </c>
       <c r="H19">
-        <v>7.952045161503229</v>
+        <v>13.22123616036227</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.25946932499668</v>
+        <v>12.19385594477114</v>
       </c>
       <c r="L19">
-        <v>7.954219891205537</v>
+        <v>8.16409482182714</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.94840754023759</v>
+        <v>19.59411068515145</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.85421308479538</v>
+        <v>16.26191186636067</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.660825151711969</v>
+        <v>4.891484809419445</v>
       </c>
       <c r="E20">
-        <v>11.73621063139033</v>
+        <v>19.46545596610411</v>
       </c>
       <c r="F20">
-        <v>17.27857553743362</v>
+        <v>21.95929708508963</v>
       </c>
       <c r="G20">
-        <v>20.69497267076916</v>
+        <v>24.72474807958326</v>
       </c>
       <c r="H20">
-        <v>7.938424874227413</v>
+        <v>13.2065675924239</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.47689997722504</v>
+        <v>12.29288628050237</v>
       </c>
       <c r="L20">
-        <v>8.087656573695281</v>
+        <v>8.189426674789392</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.97112051330382</v>
+        <v>19.57332443734566</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.6708223674326</v>
+        <v>16.45045956162589</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.901528346214466</v>
+        <v>4.990243093787706</v>
       </c>
       <c r="E21">
-        <v>11.48786850457248</v>
+        <v>19.35792771532518</v>
       </c>
       <c r="F21">
-        <v>17.78104542518627</v>
+        <v>21.96248076419869</v>
       </c>
       <c r="G21">
-        <v>21.33916126810698</v>
+        <v>24.72061155300927</v>
       </c>
       <c r="H21">
-        <v>7.900864659488059</v>
+        <v>13.1598651088697</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.18778997803904</v>
+        <v>12.6185125405865</v>
       </c>
       <c r="L21">
-        <v>8.522036021329891</v>
+        <v>8.275244330598664</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.06619549135493</v>
+        <v>19.5088922215779</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.1899408775872</v>
+        <v>16.57498033928835</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.053539676469947</v>
+        <v>5.053230150090671</v>
       </c>
       <c r="E22">
-        <v>11.33380371422476</v>
+        <v>19.2908047044743</v>
       </c>
       <c r="F22">
-        <v>18.12055897491158</v>
+        <v>21.97012436534384</v>
       </c>
       <c r="G22">
-        <v>21.7808365846188</v>
+        <v>24.72605503976493</v>
       </c>
       <c r="H22">
-        <v>7.882752211567667</v>
+        <v>13.13126754762651</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.63748231057384</v>
+        <v>12.82580647775083</v>
       </c>
       <c r="L22">
-        <v>8.795543986646722</v>
+        <v>8.331787797668062</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.14288157469024</v>
+        <v>19.47082339921008</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.91423300949234</v>
+        <v>16.50841396455301</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.972898583052267</v>
+        <v>5.019758791574315</v>
       </c>
       <c r="E23">
-        <v>11.41525094349565</v>
+        <v>19.32634127436701</v>
       </c>
       <c r="F23">
-        <v>17.93835326348256</v>
+        <v>21.96553630602734</v>
       </c>
       <c r="G23">
-        <v>21.54323066700638</v>
+        <v>24.72240371358582</v>
       </c>
       <c r="H23">
-        <v>7.891809240615423</v>
+        <v>13.1463543900875</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.39885332594838</v>
+        <v>12.7156890718682</v>
       </c>
       <c r="L23">
-        <v>8.650516236991292</v>
+        <v>8.301572177036585</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.10058611245939</v>
+        <v>19.49077093319639</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.84062513115729</v>
+        <v>16.25885447253584</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.656802707836311</v>
+        <v>4.889845177796688</v>
       </c>
       <c r="E24">
-        <v>11.74040328426736</v>
+        <v>19.46726674406952</v>
       </c>
       <c r="F24">
-        <v>17.27055436116717</v>
+        <v>21.95933904291709</v>
       </c>
       <c r="G24">
-        <v>20.68479565113252</v>
+        <v>24.72495304720665</v>
       </c>
       <c r="H24">
-        <v>7.939142783115785</v>
+        <v>13.20736340916537</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.46503286209842</v>
+        <v>12.287474118256</v>
       </c>
       <c r="L24">
-        <v>8.080381347997724</v>
+        <v>8.188032737255659</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.96980411480686</v>
+        <v>19.57444560888397</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.62267974559868</v>
+        <v>15.9963343342721</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.293696571010288</v>
+        <v>4.743403692561427</v>
       </c>
       <c r="E25">
-        <v>12.12417340151416</v>
+        <v>19.63284088335297</v>
       </c>
       <c r="F25">
-        <v>16.59960394566321</v>
+        <v>21.97655980144637</v>
       </c>
       <c r="G25">
-        <v>19.84875795612448</v>
+        <v>24.762574245607</v>
       </c>
       <c r="H25">
-        <v>8.015771571403526</v>
+        <v>13.28143152097683</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.39564484207589</v>
+        <v>11.80339751897476</v>
       </c>
       <c r="L25">
-        <v>7.420795134690265</v>
+        <v>8.067972136657529</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.88747091990114</v>
+        <v>19.68197646528248</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_77/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_77/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.80994075699194</v>
+        <v>13.67836775986427</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.630582415723802</v>
+        <v>5.008132431416377</v>
       </c>
       <c r="E2">
-        <v>19.76646936105121</v>
+        <v>12.43302282667956</v>
       </c>
       <c r="F2">
-        <v>22.00976897900639</v>
+        <v>16.14950971419485</v>
       </c>
       <c r="G2">
-        <v>24.82005699981466</v>
+        <v>19.31093189676882</v>
       </c>
       <c r="H2">
-        <v>13.34307326609354</v>
+        <v>8.092031564581067</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.429712908634</v>
+        <v>14.55749485500837</v>
       </c>
       <c r="L2">
-        <v>7.982111710387281</v>
+        <v>6.896936981204512</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.7759255541662</v>
+        <v>12.87297537794061</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.68849634596029</v>
+        <v>13.01158798233839</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.551244700977302</v>
+        <v>4.803816959201206</v>
       </c>
       <c r="E3">
-        <v>19.8643665441562</v>
+        <v>12.65785377718275</v>
       </c>
       <c r="F3">
-        <v>22.04504210212019</v>
+        <v>15.87238903053153</v>
       </c>
       <c r="G3">
-        <v>24.87744333548171</v>
+        <v>18.9945151656016</v>
       </c>
       <c r="H3">
-        <v>13.38928186310843</v>
+        <v>8.155073508312642</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.16674398827247</v>
+        <v>13.95964922224809</v>
       </c>
       <c r="L3">
-        <v>7.925738661152009</v>
+        <v>6.518363624745612</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.84876793321824</v>
+        <v>12.88959869290658</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.61651973169609</v>
+        <v>12.59021036763586</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.501198593786361</v>
+        <v>4.673291723018831</v>
       </c>
       <c r="E4">
-        <v>19.92810320630779</v>
+        <v>12.80331353943595</v>
       </c>
       <c r="F4">
-        <v>22.07297780406858</v>
+        <v>15.71607824562117</v>
       </c>
       <c r="G4">
-        <v>24.92170836421681</v>
+        <v>18.8235715432587</v>
       </c>
       <c r="H4">
-        <v>13.41984118329521</v>
+        <v>8.199067144477217</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.00087721554858</v>
+        <v>13.57865129376909</v>
       </c>
       <c r="L4">
-        <v>7.89209619456461</v>
+        <v>6.274475984757035</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.8980022803103</v>
+        <v>12.91205388614376</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.58786758209826</v>
+        <v>12.41571113497438</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.480483289318166</v>
+        <v>4.618869309802291</v>
       </c>
       <c r="E5">
-        <v>19.95498975408542</v>
+        <v>12.86442121139695</v>
       </c>
       <c r="F5">
-        <v>22.08593709605724</v>
+        <v>15.65586077876634</v>
       </c>
       <c r="G5">
-        <v>24.94200730057173</v>
+        <v>18.75969678026059</v>
       </c>
       <c r="H5">
-        <v>13.43284430854665</v>
+        <v>8.218278803426211</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.93224167799833</v>
+        <v>13.42003301660076</v>
       </c>
       <c r="L5">
-        <v>7.87864197738311</v>
+        <v>6.172249717494687</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.91919709670358</v>
+        <v>12.92416471740348</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.58315169775429</v>
+        <v>12.38657481399169</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.477024553222442</v>
+        <v>4.609759485359669</v>
       </c>
       <c r="E6">
-        <v>19.95950944423524</v>
+        <v>12.8746778467529</v>
       </c>
       <c r="F6">
-        <v>22.08818400693864</v>
+        <v>15.6460716352721</v>
       </c>
       <c r="G6">
-        <v>24.94551414163527</v>
+        <v>18.74943693088934</v>
       </c>
       <c r="H6">
-        <v>13.43503668359956</v>
+        <v>8.221545144788436</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.92078370937981</v>
+        <v>13.3934962655013</v>
       </c>
       <c r="L6">
-        <v>7.876423658640176</v>
+        <v>6.155104887163003</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.92278474436473</v>
+        <v>12.92635097926639</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.61613053453603</v>
+        <v>12.58786795879087</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.500920501274489</v>
+        <v>4.672562690438384</v>
       </c>
       <c r="E7">
-        <v>19.92846210799124</v>
+        <v>12.80413028254951</v>
       </c>
       <c r="F7">
-        <v>22.07314620438005</v>
+        <v>15.71525205046571</v>
       </c>
       <c r="G7">
-        <v>24.9219729838686</v>
+        <v>18.82268680759748</v>
       </c>
       <c r="H7">
-        <v>13.42001432124454</v>
+        <v>8.199321099464743</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.99995571085072</v>
+        <v>13.57652550878352</v>
       </c>
       <c r="L7">
-        <v>7.891913697783949</v>
+        <v>6.273108768068856</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.89828354312004</v>
+        <v>12.91220539037969</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.76754582095768</v>
+        <v>13.45107156148488</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.603511496606671</v>
+        <v>4.93876201546993</v>
       </c>
       <c r="E8">
-        <v>19.79947216525296</v>
+        <v>12.50898539173051</v>
       </c>
       <c r="F8">
-        <v>22.0206263763993</v>
+        <v>16.05108950832355</v>
       </c>
       <c r="G8">
-        <v>24.83796407589492</v>
+        <v>19.19694700748231</v>
       </c>
       <c r="H8">
-        <v>13.35855206921989</v>
+        <v>8.112643575635477</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.33999201645912</v>
+        <v>14.35432488052634</v>
       </c>
       <c r="L8">
-        <v>7.962479652760996</v>
+        <v>6.768798748780593</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.80010440101323</v>
+        <v>12.87609322071438</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.08377046230861</v>
+        <v>15.0406450855189</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.793539177866919</v>
+        <v>5.418902896651545</v>
       </c>
       <c r="E9">
-        <v>19.57525035106762</v>
+        <v>11.99068774907297</v>
       </c>
       <c r="F9">
-        <v>21.96756642930351</v>
+        <v>16.81887964317911</v>
       </c>
       <c r="G9">
-        <v>24.74525848361795</v>
+        <v>20.11829706810831</v>
       </c>
       <c r="H9">
-        <v>13.25537786268642</v>
+        <v>7.986737293730525</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.96927047426158</v>
+        <v>15.76396207709729</v>
       </c>
       <c r="L9">
-        <v>8.108051402719077</v>
+        <v>7.648934590892758</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.64345376284912</v>
+        <v>12.9077378600619</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.32612102763391</v>
+        <v>16.1368846232517</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.925622132587502</v>
+        <v>5.744373130809557</v>
       </c>
       <c r="E10">
-        <v>19.42795117425856</v>
+        <v>11.64943541967272</v>
       </c>
       <c r="F10">
-        <v>21.95913993290533</v>
+        <v>17.44800142818796</v>
       </c>
       <c r="G10">
-        <v>24.72150975579988</v>
+        <v>20.91076615246472</v>
       </c>
       <c r="H10">
-        <v>13.19015414134239</v>
+        <v>7.924177968372032</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.40552492856498</v>
+        <v>16.72348144187396</v>
       </c>
       <c r="L10">
-        <v>8.218682485309889</v>
+        <v>8.238637225786652</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.55037122621708</v>
+        <v>13.00048152472259</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.43816292684276</v>
+        <v>16.61875013346515</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.983933303797327</v>
+        <v>5.886238467948731</v>
       </c>
       <c r="E11">
-        <v>19.36471154904319</v>
+        <v>11.5034886732045</v>
       </c>
       <c r="F11">
-        <v>21.96195009170556</v>
+        <v>17.74783256138097</v>
       </c>
       <c r="G11">
-        <v>24.72040496207869</v>
+        <v>21.29620977197251</v>
       </c>
       <c r="H11">
-        <v>13.16277917305461</v>
+        <v>7.902930218586299</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.59772965756263</v>
+        <v>17.14258948216835</v>
       </c>
       <c r="L11">
-        <v>8.269655402530748</v>
+        <v>8.494494522203045</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.51283202762534</v>
+        <v>13.05919829010813</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.48081543911176</v>
+        <v>16.79872422733423</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.00574813367417</v>
+        <v>5.939051162519834</v>
       </c>
       <c r="E12">
-        <v>19.34130505640658</v>
+        <v>11.44962883127605</v>
       </c>
       <c r="F12">
-        <v>21.96396878928656</v>
+        <v>17.86328395588956</v>
       </c>
       <c r="G12">
-        <v>24.72138426596226</v>
+        <v>21.44571759426755</v>
       </c>
       <c r="H12">
-        <v>13.15274314775846</v>
+        <v>7.895982994509687</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.66956926742137</v>
+        <v>17.29874072625773</v>
       </c>
       <c r="L12">
-        <v>8.289037168405986</v>
+        <v>8.589599966644659</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.49930992579087</v>
+        <v>13.08392092216168</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.47162000012152</v>
+        <v>16.76007573200038</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.001061937168787</v>
+        <v>5.927717665598026</v>
       </c>
       <c r="E13">
-        <v>19.34632201514501</v>
+        <v>11.46116470160147</v>
       </c>
       <c r="F13">
-        <v>21.96349159417802</v>
+        <v>17.83833520397818</v>
       </c>
       <c r="G13">
-        <v>24.72111116252712</v>
+        <v>21.41336129405314</v>
       </c>
       <c r="H13">
-        <v>13.15488989327816</v>
+        <v>7.89742932024981</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.654139996673</v>
+        <v>17.26522520310053</v>
       </c>
       <c r="L13">
-        <v>8.284859641509348</v>
+        <v>8.56919650246034</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.50219128774994</v>
+        <v>13.07848409548706</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.44166766435767</v>
+        <v>16.63360715546719</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.985733422871593</v>
+        <v>5.890601701364073</v>
       </c>
       <c r="E14">
-        <v>19.36277504507867</v>
+        <v>11.49902895214588</v>
       </c>
       <c r="F14">
-        <v>21.96209704801944</v>
+        <v>17.75729278919576</v>
       </c>
       <c r="G14">
-        <v>24.72045750701757</v>
+        <v>21.30843900414257</v>
       </c>
       <c r="H14">
-        <v>13.16194688289758</v>
+        <v>7.902336280495251</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.60365911449324</v>
+        <v>17.15548764194618</v>
       </c>
       <c r="L14">
-        <v>8.271248437817933</v>
+        <v>8.502354598557432</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.51170565110731</v>
+        <v>13.06118175624354</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.42334925598167</v>
+        <v>16.55581418803623</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.976309257405374</v>
+        <v>5.867748295263266</v>
       </c>
       <c r="E15">
-        <v>19.37292343015259</v>
+        <v>11.52240740414615</v>
       </c>
       <c r="F15">
-        <v>21.96136712142676</v>
+        <v>17.70789945472789</v>
       </c>
       <c r="G15">
-        <v>24.72023920412089</v>
+        <v>21.24463190618718</v>
       </c>
       <c r="H15">
-        <v>13.1663125102857</v>
+        <v>7.905486916328671</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.57261387642048</v>
+        <v>17.08793590340193</v>
       </c>
       <c r="L15">
-        <v>8.262921124394053</v>
+        <v>8.461180025494395</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.51762381180247</v>
+        <v>13.05091078288389</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.31883209525099</v>
+        <v>16.10504788384488</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.921774685660531</v>
+        <v>5.734975650656664</v>
       </c>
       <c r="E16">
-        <v>19.43215977661002</v>
+        <v>11.65916619574483</v>
       </c>
       <c r="F16">
-        <v>21.9590899195668</v>
+        <v>17.42867703418105</v>
       </c>
       <c r="G16">
-        <v>24.72177741122684</v>
+        <v>20.88607542691909</v>
       </c>
       <c r="H16">
-        <v>13.1919893685405</v>
+        <v>7.925716896843261</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.39283416533471</v>
+        <v>16.69573687316625</v>
       </c>
       <c r="L16">
-        <v>8.21536313742765</v>
+        <v>8.221666792350598</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.55292137893705</v>
+        <v>12.99698644294436</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.25515028662812</v>
+        <v>15.82414651611236</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.887856903196754</v>
+        <v>5.651923752144036</v>
       </c>
       <c r="E17">
-        <v>19.46946373650324</v>
+        <v>11.74549049534289</v>
       </c>
       <c r="F17">
-        <v>21.95939420126383</v>
+        <v>17.26084207233943</v>
       </c>
       <c r="G17">
-        <v>24.72520774215831</v>
+        <v>20.67247794250104</v>
       </c>
       <c r="H17">
-        <v>13.20832937744391</v>
+        <v>7.94001748171184</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.2809108899882</v>
+        <v>16.45063942082339</v>
       </c>
       <c r="L17">
-        <v>8.186343799287361</v>
+        <v>8.071556187872561</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.57580751223963</v>
+        <v>12.96821937484125</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.21869321091276</v>
+        <v>15.66099971531975</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.868181940289378</v>
+        <v>5.603572443916573</v>
       </c>
       <c r="E18">
-        <v>19.49127464760493</v>
+        <v>11.79601164185194</v>
       </c>
       <c r="F18">
-        <v>21.96019462637307</v>
+        <v>17.16559492119391</v>
       </c>
       <c r="G18">
-        <v>24.72809357577156</v>
+        <v>20.55197346039503</v>
       </c>
       <c r="H18">
-        <v>13.21794378349986</v>
+        <v>7.94891765546875</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.21594980928314</v>
+        <v>16.30803229224017</v>
       </c>
       <c r="L18">
-        <v>8.169714289959556</v>
+        <v>7.984048870587119</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.58942310400479</v>
+        <v>12.95322258183716</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.2063798609039</v>
+        <v>15.60549243935585</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.861492118748758</v>
+        <v>5.58710216667803</v>
       </c>
       <c r="E19">
-        <v>19.49872038504557</v>
+        <v>11.81326459007708</v>
       </c>
       <c r="F19">
-        <v>21.96057306037693</v>
+        <v>17.13356841257523</v>
       </c>
       <c r="G19">
-        <v>24.72922732592653</v>
+        <v>20.51157751743925</v>
       </c>
       <c r="H19">
-        <v>13.22123616036227</v>
+        <v>7.952045161503181</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.19385594477114</v>
+        <v>16.25946932499673</v>
       </c>
       <c r="L19">
-        <v>8.16409482182714</v>
+        <v>7.954219891205512</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.59411068515145</v>
+        <v>12.94840754023758</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.26191186636067</v>
+        <v>15.85421308479538</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.891484809419445</v>
+        <v>5.660825151712058</v>
       </c>
       <c r="E20">
-        <v>19.46545596610411</v>
+        <v>11.73621063139019</v>
       </c>
       <c r="F20">
-        <v>21.95929708508963</v>
+        <v>17.27857553743353</v>
       </c>
       <c r="G20">
-        <v>24.72474807958326</v>
+        <v>20.694972670769</v>
       </c>
       <c r="H20">
-        <v>13.2065675924239</v>
+        <v>7.938424874227398</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.29288628050237</v>
+        <v>16.47689997722505</v>
       </c>
       <c r="L20">
-        <v>8.189426674789392</v>
+        <v>8.087656573695281</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.57332443734566</v>
+        <v>12.97112051330373</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.45045956162589</v>
+        <v>16.67082236743259</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.990243093787706</v>
+        <v>5.901528346214561</v>
       </c>
       <c r="E21">
-        <v>19.35792771532518</v>
+        <v>11.48786850457249</v>
       </c>
       <c r="F21">
-        <v>21.96248076419869</v>
+        <v>17.78104542518617</v>
       </c>
       <c r="G21">
-        <v>24.72061155300927</v>
+        <v>21.33916126810688</v>
       </c>
       <c r="H21">
-        <v>13.1598651088697</v>
+        <v>7.900864659488008</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.6185125405865</v>
+        <v>17.18778997803904</v>
       </c>
       <c r="L21">
-        <v>8.275244330598664</v>
+        <v>8.522036021329942</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.5088922215779</v>
+        <v>13.06619549135483</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.57498033928835</v>
+        <v>17.18994087758723</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.053230150090671</v>
+        <v>6.053539676469922</v>
       </c>
       <c r="E22">
-        <v>19.2908047044743</v>
+        <v>11.33380371422476</v>
       </c>
       <c r="F22">
-        <v>21.97012436534384</v>
+        <v>18.12055897491154</v>
       </c>
       <c r="G22">
-        <v>24.72605503976493</v>
+        <v>21.78083658461877</v>
       </c>
       <c r="H22">
-        <v>13.13126754762651</v>
+        <v>7.882752211567611</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.82580647775083</v>
+        <v>17.63748231057382</v>
       </c>
       <c r="L22">
-        <v>8.331787797668062</v>
+        <v>8.795543986646717</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.47082339921008</v>
+        <v>13.14288157469021</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.50841396455301</v>
+        <v>16.91423300949237</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.019758791574315</v>
+        <v>5.972898583052228</v>
       </c>
       <c r="E23">
-        <v>19.32634127436701</v>
+        <v>11.41525094349571</v>
       </c>
       <c r="F23">
-        <v>21.96553630602734</v>
+        <v>17.93835326348243</v>
       </c>
       <c r="G23">
-        <v>24.72240371358582</v>
+        <v>21.54323066700617</v>
       </c>
       <c r="H23">
-        <v>13.1463543900875</v>
+        <v>7.891809240615371</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.7156890718682</v>
+        <v>17.39885332594844</v>
       </c>
       <c r="L23">
-        <v>8.301572177036585</v>
+        <v>8.650516236991349</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.49077093319639</v>
+        <v>13.10058611245925</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.25885447253584</v>
+        <v>15.8406251311573</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.889845177796688</v>
+        <v>5.656802707836352</v>
       </c>
       <c r="E24">
-        <v>19.46726674406952</v>
+        <v>11.74040328426736</v>
       </c>
       <c r="F24">
-        <v>21.95933904291709</v>
+        <v>17.2705543611671</v>
       </c>
       <c r="G24">
-        <v>24.72495304720665</v>
+        <v>20.68479565113246</v>
       </c>
       <c r="H24">
-        <v>13.20736340916537</v>
+        <v>7.939142783115678</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.287474118256</v>
+        <v>16.46503286209843</v>
       </c>
       <c r="L24">
-        <v>8.188032737255659</v>
+        <v>8.080381347997712</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.57444560888397</v>
+        <v>12.96980411480678</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.9963343342721</v>
+        <v>14.6226797455987</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.743403692561427</v>
+        <v>5.293696571010344</v>
       </c>
       <c r="E25">
-        <v>19.63284088335297</v>
+        <v>12.12417340151423</v>
       </c>
       <c r="F25">
-        <v>21.97655980144637</v>
+        <v>16.59960394566308</v>
       </c>
       <c r="G25">
-        <v>24.762574245607</v>
+        <v>19.84875795612427</v>
       </c>
       <c r="H25">
-        <v>13.28143152097683</v>
+        <v>8.015771571403471</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.80339751897476</v>
+        <v>15.39564484207588</v>
       </c>
       <c r="L25">
-        <v>8.067972136657529</v>
+        <v>7.420795134690278</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.68197646528248</v>
+        <v>12.88747091990103</v>
       </c>
     </row>
   </sheetData>
